--- a/Table/Table_xls/z指引历程表.xlsx
+++ b/Table/Table_xls/z指引历程表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -846,6 +846,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -853,7 +860,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -861,29 +867,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,6 +914,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -905,7 +929,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -917,22 +963,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -946,11 +979,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -968,14 +1034,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -990,66 +1069,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1062,34 +1083,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="56"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1103,13 +1103,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1146,6 +1146,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1158,37 +1164,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,7 +1212,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,157 +1254,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,6 +1278,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1393,6 +1393,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,7 +1416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1422,19 +1428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="52"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1487,13 +1487,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1518,21 +1552,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1542,64 +1561,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1615,21 +1582,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1653,8 +1605,65 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color indexed="30"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1677,17 +1686,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
+      <bottom style="medium">
+        <color indexed="30"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1696,238 +1696,238 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1936,103 +1936,103 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2050,6 +2050,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2065,31 +2080,16 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2107,139 +2107,115 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="54" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="54" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="54" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2248,67 +2224,91 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="54" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="54" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="54" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="54" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="54" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="54" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="54" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2320,149 +2320,149 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="52" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="52" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="52" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="52" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="52" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2497,6 +2497,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2509,14 +2512,17 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2543,8 +2549,8 @@
     <cellStyle name="超链接" xfId="15" builtinId="8"/>
     <cellStyle name="百分比" xfId="16" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="17" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="18"/>
-    <cellStyle name="注释" xfId="19" builtinId="10"/>
+    <cellStyle name="注释" xfId="18" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2 3" xfId="20"/>
     <cellStyle name="20% - 强调文字颜色 4 5" xfId="21"/>
     <cellStyle name="警告文本" xfId="22" builtinId="11"/>
@@ -2573,8 +2579,8 @@
     <cellStyle name="汇总" xfId="45" builtinId="25"/>
     <cellStyle name="40% - 强调文字颜色 6 5" xfId="46"/>
     <cellStyle name="好" xfId="47" builtinId="26"/>
-    <cellStyle name="适中" xfId="48" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="48"/>
+    <cellStyle name="适中" xfId="49" builtinId="28"/>
     <cellStyle name="输出 5" xfId="50"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="51" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="52" builtinId="29"/>
@@ -3127,23 +3133,23 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="4" width="11.2545454545455" style="9" customWidth="1"/>
+    <col min="2" max="4" width="11.25" style="9" customWidth="1"/>
     <col min="5" max="5" width="42" style="9" customWidth="1"/>
-    <col min="6" max="6" width="8.62727272727273" style="9" customWidth="1"/>
-    <col min="7" max="7" width="54.6272727272727" style="9" customWidth="1"/>
+    <col min="6" max="6" width="8.62962962962963" style="9" customWidth="1"/>
+    <col min="7" max="7" width="54.6296296296296" style="9" customWidth="1"/>
     <col min="8" max="9" width="9" style="9"/>
-    <col min="10" max="10" width="16.7545454545455" style="9" customWidth="1"/>
+    <col min="10" max="10" width="16.75" style="9" customWidth="1"/>
     <col min="11" max="11" width="9" style="9"/>
     <col min="12" max="12" width="25.5" style="9" customWidth="1"/>
-    <col min="13" max="13" width="14.6272727272727" style="9" customWidth="1"/>
+    <col min="13" max="13" width="14.6296296296296" style="9" customWidth="1"/>
     <col min="14" max="16" width="9" style="9"/>
-    <col min="17" max="17" width="19.1272727272727" style="9" customWidth="1"/>
+    <col min="17" max="17" width="19.1296296296296" style="9" customWidth="1"/>
     <col min="18" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
@@ -3318,7 +3324,7 @@
       <c r="P2" s="5">
         <v>1078</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="18" t="s">
         <v>46</v>
       </c>
       <c r="R2" s="5">
@@ -3443,7 +3449,7 @@
       <c r="P3" s="5">
         <v>1078</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="18" t="s">
         <v>50</v>
       </c>
       <c r="R3" s="5">
@@ -3690,7 +3696,7 @@
       <c r="M5" s="5">
         <v>18</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="12">
         <v>311188</v>
       </c>
       <c r="O5" s="5">
@@ -3699,7 +3705,7 @@
       <c r="P5" s="5">
         <v>1095</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="19" t="s">
         <v>57</v>
       </c>
       <c r="R5" s="5">
@@ -3818,7 +3824,7 @@
       <c r="M6" s="5">
         <v>21</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="12">
         <v>311189</v>
       </c>
       <c r="O6" s="5">
@@ -3827,7 +3833,7 @@
       <c r="P6" s="5">
         <v>1095</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="19" t="s">
         <v>60</v>
       </c>
       <c r="R6" s="5">
@@ -3952,7 +3958,7 @@
       <c r="P7" s="6">
         <v>1418</v>
       </c>
-      <c r="Q7" s="18" t="s">
+      <c r="Q7" s="20" t="s">
         <v>64</v>
       </c>
       <c r="R7" s="6">
@@ -4443,7 +4449,7 @@
       <c r="L11" s="5">
         <v>155</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="13">
         <v>340441</v>
       </c>
       <c r="O11" s="5">
@@ -4452,7 +4458,7 @@
       <c r="P11" s="5">
         <v>40515</v>
       </c>
-      <c r="Q11" s="19" t="s">
+      <c r="Q11" s="21" t="s">
         <v>77</v>
       </c>
       <c r="R11" s="5">
@@ -4568,7 +4574,7 @@
       <c r="L12" s="5">
         <v>40</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="14" t="s">
         <v>80</v>
       </c>
       <c r="O12" s="5">
@@ -4577,7 +4583,7 @@
       <c r="P12" s="5">
         <v>50511</v>
       </c>
-      <c r="Q12" s="20" t="s">
+      <c r="Q12" s="22" t="s">
         <v>81</v>
       </c>
       <c r="R12" s="5">
@@ -4952,10 +4958,10 @@
       <c r="O15" s="6">
         <v>1</v>
       </c>
-      <c r="P15" s="14" t="s">
+      <c r="P15" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="Q15" s="21" t="s">
+      <c r="Q15" s="23" t="s">
         <v>90</v>
       </c>
       <c r="R15" s="6">
@@ -5211,7 +5217,7 @@
       <c r="P17" s="8">
         <v>1078</v>
       </c>
-      <c r="Q17" s="17" t="s">
+      <c r="Q17" s="18" t="s">
         <v>46</v>
       </c>
       <c r="R17" s="8">
@@ -5330,16 +5336,16 @@
       <c r="M18" s="5">
         <v>0</v>
       </c>
-      <c r="N18" s="15" t="s">
+      <c r="N18" s="16" t="s">
         <v>97</v>
       </c>
       <c r="O18" s="5">
         <v>1</v>
       </c>
-      <c r="P18" s="15" t="s">
+      <c r="P18" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="Q18" s="22" t="s">
+      <c r="Q18" s="24" t="s">
         <v>99</v>
       </c>
       <c r="R18" s="5">
@@ -5461,7 +5467,7 @@
       <c r="P19" s="7">
         <v>1078</v>
       </c>
-      <c r="Q19" s="17" t="s">
+      <c r="Q19" s="18" t="s">
         <v>46</v>
       </c>
       <c r="R19" s="7">
@@ -5586,10 +5592,10 @@
       <c r="O20" s="5">
         <v>1</v>
       </c>
-      <c r="P20" s="16">
+      <c r="P20" s="17">
         <v>598</v>
       </c>
-      <c r="Q20" s="23" t="s">
+      <c r="Q20" s="25" t="s">
         <v>105</v>
       </c>
       <c r="R20" s="5">
@@ -5714,10 +5720,10 @@
       <c r="O21" s="5">
         <v>1</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P21" s="17">
         <v>598</v>
       </c>
-      <c r="Q21" s="23" t="s">
+      <c r="Q21" s="25" t="s">
         <v>109</v>
       </c>
       <c r="R21" s="5">
@@ -5842,10 +5848,10 @@
       <c r="O22" s="5">
         <v>1</v>
       </c>
-      <c r="P22" s="16">
+      <c r="P22" s="17">
         <v>598</v>
       </c>
-      <c r="Q22" s="23" t="s">
+      <c r="Q22" s="25" t="s">
         <v>113</v>
       </c>
       <c r="R22" s="5">
@@ -5970,10 +5976,10 @@
       <c r="O23" s="5">
         <v>2</v>
       </c>
-      <c r="P23" s="16">
+      <c r="P23" s="17">
         <v>598</v>
       </c>
-      <c r="Q23" s="23" t="s">
+      <c r="Q23" s="25" t="s">
         <v>117</v>
       </c>
       <c r="R23" s="5">
@@ -6098,10 +6104,10 @@
       <c r="O24" s="7">
         <v>1</v>
       </c>
-      <c r="P24" s="16">
+      <c r="P24" s="17">
         <v>598</v>
       </c>
-      <c r="Q24" s="23" t="s">
+      <c r="Q24" s="25" t="s">
         <v>121</v>
       </c>
       <c r="R24" s="5">
@@ -6223,10 +6229,10 @@
       <c r="O25" s="5">
         <v>2</v>
       </c>
-      <c r="P25" s="16">
+      <c r="P25" s="17">
         <v>598</v>
       </c>
-      <c r="Q25" s="23" t="s">
+      <c r="Q25" s="25" t="s">
         <v>125</v>
       </c>
       <c r="R25" s="5">
@@ -6325,7 +6331,7 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -6546,7 +6552,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
